--- a/Data/EC/NIT-9005827317.xlsx
+++ b/Data/EC/NIT-9005827317.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E7E0691-9BA7-4687-B6D8-1B9BC93C6BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4C9E7D4-7662-48D6-B51C-48DAC02AA31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AAB85798-ED38-4C5D-A9E1-4948965DCA69}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B39AA523-0C7D-4FFA-ABDC-190E17C9C436}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="80">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,235 +65,184 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73580531</t>
-  </si>
-  <si>
-    <t>RENE ARNOLDO QUINTANA ESTRADA</t>
+    <t>1047435537</t>
+  </si>
+  <si>
+    <t>BLEIDIS MARIA MALDONADO CASTILLO</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>92601060</t>
+  </si>
+  <si>
+    <t>JAVIER PEÑA TORRES</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>73191632</t>
+  </si>
+  <si>
+    <t>ALFONSO LUIS VISBAL GARCIA</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1007976000</t>
+  </si>
+  <si>
+    <t>MAYERLIS JULIO MOSQUERA</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>9299763</t>
+  </si>
+  <si>
+    <t>JOHN JAIRO GRAU REVOLLO</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>1049621167</t>
+  </si>
+  <si>
+    <t>MANUEL CAMILO CANARIA LIZARAZO</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>1007313162</t>
+  </si>
+  <si>
+    <t>PEDRO VERGARA OSPINA</t>
+  </si>
+  <si>
+    <t>1051888177</t>
+  </si>
+  <si>
+    <t>YIMI JESUS ARENAS BECHARA</t>
+  </si>
+  <si>
+    <t>73195724</t>
+  </si>
+  <si>
+    <t>OLIVER LEONIDAS CANDIA ANILLO</t>
+  </si>
+  <si>
+    <t>1047370421</t>
+  </si>
+  <si>
+    <t>WILLMER EMYTH MORELO MARTINEZ</t>
+  </si>
+  <si>
+    <t>1047467645</t>
+  </si>
+  <si>
+    <t>NESTOR JOSE ZAMBRANO BLANCO</t>
+  </si>
+  <si>
+    <t>1049945062</t>
+  </si>
+  <si>
+    <t>YEINY PAOLA ROMERO CASSIANI</t>
+  </si>
+  <si>
+    <t>1050007052</t>
+  </si>
+  <si>
+    <t>CARLOS ALFREDO UTRIA OROZCO</t>
+  </si>
+  <si>
+    <t>1007740517</t>
+  </si>
+  <si>
+    <t>HUMBERTO JOSE MONTES OSPINO</t>
+  </si>
+  <si>
+    <t>1002302265</t>
+  </si>
+  <si>
+    <t>JORGE LUIS HADECHINE NOVOA</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>1047464130</t>
+  </si>
+  <si>
+    <t>ARIEL PRIETO RUIZ</t>
+  </si>
+  <si>
+    <t>73214743</t>
+  </si>
+  <si>
+    <t>ELVIS ELIAS HERRERA JULIO</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>73214743</t>
-  </si>
-  <si>
-    <t>ELVIS ELIAS HERRERA JULIO</t>
-  </si>
-  <si>
-    <t>45528922</t>
-  </si>
-  <si>
-    <t>ELEIDIS RAMOS ZUNIGA</t>
-  </si>
-  <si>
-    <t>1049621167</t>
-  </si>
-  <si>
-    <t>MANUEL CAMILO CANARIA LIZARAZO</t>
-  </si>
-  <si>
-    <t>73191632</t>
-  </si>
-  <si>
-    <t>ALFONSO LUIS VISBAL GARCIA</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>92601060</t>
-  </si>
-  <si>
-    <t>JAVIER PEÑA TORRES</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1143359251</t>
-  </si>
-  <si>
-    <t>JEILER MALLARINO JIMENEZ</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>1007313162</t>
-  </si>
-  <si>
-    <t>PEDRO VERGARA OSPINA</t>
-  </si>
-  <si>
-    <t>32935764</t>
-  </si>
-  <si>
-    <t>LEIDI GOMEZ MARIMON</t>
-  </si>
-  <si>
-    <t>1051888177</t>
-  </si>
-  <si>
-    <t>YIMI JESUS ARENAS BECHARA</t>
-  </si>
-  <si>
-    <t>9287831</t>
-  </si>
-  <si>
-    <t>VICTOR MANUEL CAICEDO GARCIA</t>
-  </si>
-  <si>
-    <t>1047435537</t>
-  </si>
-  <si>
-    <t>BLEIDIS MARIA MALDONADO CASTILLO</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>9299763</t>
-  </si>
-  <si>
-    <t>JOHN JAIRO GRAU REVOLLO</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>1143348972</t>
-  </si>
-  <si>
-    <t>PEDRO LUIS MENDOZA MARTINEZ</t>
-  </si>
-  <si>
-    <t>1047464130</t>
-  </si>
-  <si>
-    <t>ARIEL PRIETO RUIZ</t>
-  </si>
-  <si>
-    <t>73195724</t>
-  </si>
-  <si>
-    <t>OLIVER LEONIDAS CANDIA ANILLO</t>
-  </si>
-  <si>
-    <t>1047370421</t>
-  </si>
-  <si>
-    <t>WILLMER EMYTH MORELO MARTINEZ</t>
-  </si>
-  <si>
-    <t>1047433237</t>
-  </si>
-  <si>
-    <t>DIANA MARCELA RUIZ ZUÑIGA</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>1102873025</t>
-  </si>
-  <si>
-    <t>JAVIER DAVID RODRIGUEZ URAN</t>
-  </si>
-  <si>
-    <t>1047467645</t>
-  </si>
-  <si>
-    <t>NESTOR JOSE ZAMBRANO BLANCO</t>
-  </si>
-  <si>
-    <t>1049945062</t>
-  </si>
-  <si>
-    <t>YEINY PAOLA ROMERO CASSIANI</t>
-  </si>
-  <si>
-    <t>YEINI PAOLA ROMERO CASSIANI</t>
-  </si>
-  <si>
-    <t>1050007052</t>
-  </si>
-  <si>
-    <t>CARLOS ALFREDO UTRIA OROZCO</t>
-  </si>
-  <si>
-    <t>1007976000</t>
-  </si>
-  <si>
-    <t>MAYERLIS JULIO MOSQUERA</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>1007740517</t>
-  </si>
-  <si>
-    <t>HUMBERTO JOSE MONTES OSPINO</t>
-  </si>
-  <si>
-    <t>1002302265</t>
-  </si>
-  <si>
-    <t>JORGE LUIS HADECHINE NOVOA</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -392,7 +341,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -405,9 +356,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -607,23 +556,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -651,10 +600,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -707,7 +656,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C09C22-AD6B-C5E1-B45B-3AB25931475F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C170E6-E2FE-7381-1877-DA5076B61965}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1058,8 +1007,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CDD2C6-57EC-4BAD-92A3-B7AC804C964C}">
-  <dimension ref="B2:J171"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F10D49-8445-44E5-812C-85E2F78F56FF}">
+  <dimension ref="B2:J117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1083,7 +1032,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1128,7 +1077,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1160,12 +1109,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>8862885</v>
+        <v>4999812</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1176,14 +1125,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C13" s="5">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F13" s="5">
         <v>26</v>
@@ -1213,13 +1162,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1236,10 +1185,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
-        <v>1500000</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1259,10 +1208,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>1500000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1282,10 +1231,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
-        <v>1500000</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1296,19 +1245,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>52000</v>
+        <v>37800</v>
       </c>
       <c r="G19" s="18">
-        <v>1500000</v>
+        <v>945000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1325,13 +1274,13 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>1500000</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1342,19 +1291,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>1500000</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1371,13 +1320,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
-        <v>1500000</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1394,13 +1343,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
-        <v>1500000</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1411,19 +1360,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>60000</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
-        <v>1500000</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1434,19 +1383,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>60000</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
-        <v>1500000</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1457,19 +1406,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>60000</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
-        <v>1500000</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1480,19 +1429,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G27" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1503,19 +1452,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F28" s="18">
-        <v>52000</v>
+        <v>50000</v>
       </c>
       <c r="G28" s="18">
-        <v>1300000</v>
+        <v>1250000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1526,19 +1475,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F29" s="18">
-        <v>52000</v>
+        <v>50000</v>
       </c>
       <c r="G29" s="18">
-        <v>1300000</v>
+        <v>1250000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1549,19 +1498,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F30" s="18">
-        <v>52000</v>
+        <v>50000</v>
       </c>
       <c r="G30" s="18">
-        <v>1300000</v>
+        <v>1250000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1572,19 +1521,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F31" s="18">
-        <v>52000</v>
+        <v>50000</v>
       </c>
       <c r="G31" s="18">
-        <v>1300000</v>
+        <v>1250000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1595,19 +1544,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F32" s="18">
-        <v>52000</v>
+        <v>50000</v>
       </c>
       <c r="G32" s="18">
-        <v>1300000</v>
+        <v>1250000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1618,19 +1567,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F33" s="18">
-        <v>52000</v>
+        <v>50000</v>
       </c>
       <c r="G33" s="18">
-        <v>1300000</v>
+        <v>1250000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1641,19 +1590,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F34" s="18">
-        <v>52000</v>
+        <v>50000</v>
       </c>
       <c r="G34" s="18">
-        <v>1300000</v>
+        <v>1250000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1664,13 +1613,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1687,13 +1636,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1710,13 +1659,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
@@ -1733,19 +1682,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
       </c>
       <c r="G38" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1756,13 +1705,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
@@ -1779,19 +1728,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F40" s="18">
-        <v>52000</v>
+        <v>58680</v>
       </c>
       <c r="G40" s="18">
-        <v>1300000</v>
+        <v>1467000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1802,13 +1751,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1825,19 +1774,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
-        <v>52000</v>
+        <v>62800</v>
       </c>
       <c r="G42" s="18">
-        <v>1300000</v>
+        <v>1570000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1848,19 +1797,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G43" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1871,19 +1820,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F44" s="18">
-        <v>37800</v>
+        <v>60000</v>
       </c>
       <c r="G44" s="18">
-        <v>945000</v>
+        <v>1500000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1894,13 +1843,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F45" s="18">
         <v>52000</v>
@@ -1917,13 +1866,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="F46" s="18">
         <v>52000</v>
@@ -1940,13 +1889,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
@@ -1963,19 +1912,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="F48" s="18">
         <v>52000</v>
       </c>
       <c r="G48" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1986,13 +1935,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F49" s="18">
         <v>52000</v>
@@ -2009,19 +1958,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F50" s="18">
-        <v>52000</v>
+        <v>58680</v>
       </c>
       <c r="G50" s="18">
-        <v>1300000</v>
+        <v>1467000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2032,13 +1981,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F51" s="18">
         <v>52000</v>
@@ -2055,19 +2004,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="F52" s="18">
-        <v>52000</v>
+        <v>62800</v>
       </c>
       <c r="G52" s="18">
-        <v>1300000</v>
+        <v>1570000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2078,19 +2027,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="F53" s="18">
-        <v>17013</v>
+        <v>52000</v>
       </c>
       <c r="G53" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2101,19 +2050,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F54" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G54" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2124,13 +2073,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F55" s="18">
         <v>52000</v>
@@ -2147,13 +2096,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F56" s="18">
         <v>52000</v>
@@ -2170,13 +2119,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F57" s="18">
         <v>52000</v>
@@ -2193,19 +2142,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="F58" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G58" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2216,19 +2165,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="F59" s="18">
         <v>52000</v>
       </c>
       <c r="G59" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2239,13 +2188,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F60" s="18">
         <v>52000</v>
@@ -2262,19 +2211,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F61" s="18">
-        <v>52000</v>
+        <v>62800</v>
       </c>
       <c r="G61" s="18">
-        <v>1300000</v>
+        <v>1570000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2285,19 +2234,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F62" s="18">
-        <v>5200</v>
+        <v>52000</v>
       </c>
       <c r="G62" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2308,19 +2257,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G63" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2331,19 +2280,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="F64" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G64" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2360,7 +2309,7 @@
         <v>37</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F65" s="18">
         <v>52000</v>
@@ -2377,13 +2326,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F66" s="18">
         <v>52000</v>
@@ -2400,13 +2349,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F67" s="18">
         <v>52000</v>
@@ -2423,19 +2372,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G68" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2446,19 +2395,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="F69" s="18">
         <v>52000</v>
       </c>
       <c r="G69" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2469,13 +2418,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F70" s="18">
         <v>52000</v>
@@ -2492,19 +2441,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F71" s="18">
-        <v>52000</v>
+        <v>62800</v>
       </c>
       <c r="G71" s="18">
-        <v>1300000</v>
+        <v>1570000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2515,19 +2464,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F72" s="18">
         <v>52000</v>
       </c>
       <c r="G72" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2538,19 +2487,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F73" s="18">
-        <v>76000</v>
+        <v>60000</v>
       </c>
       <c r="G73" s="18">
-        <v>1900000</v>
+        <v>1500000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2561,19 +2510,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>60000</v>
       </c>
       <c r="G74" s="18">
-        <v>781242</v>
+        <v>1500000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2584,19 +2533,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G75" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2607,19 +2556,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F76" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G76" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2630,19 +2579,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D77" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="E77" s="16" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F77" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G77" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2653,19 +2602,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="F78" s="18">
-        <v>31249</v>
+        <v>56940</v>
       </c>
       <c r="G78" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2676,19 +2625,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="F79" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G79" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2699,19 +2648,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G80" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2722,19 +2671,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F81" s="18">
-        <v>31249</v>
+        <v>62800</v>
       </c>
       <c r="G81" s="18">
-        <v>781242</v>
+        <v>1570000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2745,19 +2694,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G82" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2768,19 +2717,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F83" s="18">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="G83" s="18">
-        <v>1250000</v>
+        <v>1500000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2791,19 +2740,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F84" s="18">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="G84" s="18">
-        <v>1250000</v>
+        <v>1500000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2814,19 +2763,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F85" s="18">
-        <v>50000</v>
+        <v>52000</v>
       </c>
       <c r="G85" s="18">
-        <v>1250000</v>
+        <v>1300000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2837,19 +2786,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="F86" s="18">
-        <v>50000</v>
+        <v>52000</v>
       </c>
       <c r="G86" s="18">
-        <v>1250000</v>
+        <v>1300000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2860,19 +2809,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F87" s="18">
-        <v>50000</v>
+        <v>55042</v>
       </c>
       <c r="G87" s="18">
-        <v>1250000</v>
+        <v>1423500</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2883,19 +2832,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F88" s="18">
-        <v>50000</v>
+        <v>52000</v>
       </c>
       <c r="G88" s="18">
-        <v>1250000</v>
+        <v>1423500</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2906,19 +2855,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F89" s="18">
-        <v>50000</v>
+        <v>52000</v>
       </c>
       <c r="G89" s="18">
-        <v>1250000</v>
+        <v>1300000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2929,19 +2878,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="F90" s="18">
-        <v>192000</v>
+        <v>62800</v>
       </c>
       <c r="G90" s="18">
-        <v>4800000</v>
+        <v>1570000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2952,19 +2901,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F91" s="18">
-        <v>192000</v>
+        <v>56940</v>
       </c>
       <c r="G91" s="18">
-        <v>4800000</v>
+        <v>1423500</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2975,19 +2924,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F92" s="18">
-        <v>192000</v>
+        <v>60000</v>
       </c>
       <c r="G92" s="18">
-        <v>4800000</v>
+        <v>1500000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2998,19 +2947,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="F93" s="18">
-        <v>192000</v>
+        <v>52000</v>
       </c>
       <c r="G93" s="18">
-        <v>4800000</v>
+        <v>1300000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3021,19 +2970,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F94" s="18">
-        <v>192000</v>
+        <v>52000</v>
       </c>
       <c r="G94" s="18">
-        <v>4800000</v>
+        <v>1300000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3044,19 +2993,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F95" s="18">
-        <v>192000</v>
+        <v>52000</v>
       </c>
       <c r="G95" s="18">
-        <v>4800000</v>
+        <v>1300000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3067,19 +3016,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F96" s="18">
-        <v>192000</v>
+        <v>62800</v>
       </c>
       <c r="G96" s="18">
-        <v>4800000</v>
+        <v>1570000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3090,19 +3039,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F97" s="18">
-        <v>192000</v>
+        <v>56940</v>
       </c>
       <c r="G97" s="18">
-        <v>4800000</v>
+        <v>1423500</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3113,19 +3062,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F98" s="18">
-        <v>55042</v>
+        <v>60000</v>
       </c>
       <c r="G98" s="18">
-        <v>1423500</v>
+        <v>1500000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3136,19 +3085,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F99" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G99" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3159,19 +3108,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F100" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G100" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3182,19 +3131,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F101" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G101" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3205,19 +3154,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F102" s="18">
-        <v>56940</v>
+        <v>62800</v>
       </c>
       <c r="G102" s="18">
-        <v>1423500</v>
+        <v>1570000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3228,16 +3177,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F103" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G103" s="18">
         <v>1423500</v>
@@ -3251,19 +3200,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F104" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G104" s="18">
-        <v>1423500</v>
+        <v>1500000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3274,19 +3223,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F105" s="18">
         <v>52000</v>
       </c>
       <c r="G105" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3297,19 +3246,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="F106" s="18">
         <v>52000</v>
       </c>
       <c r="G106" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3320,16 +3269,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="F107" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G107" s="18">
         <v>1423500</v>
@@ -3343,19 +3292,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="F108" s="18">
         <v>52000</v>
       </c>
       <c r="G108" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3366,19 +3315,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F109" s="18">
-        <v>52000</v>
+        <v>62800</v>
       </c>
       <c r="G109" s="18">
-        <v>1300000</v>
+        <v>1570000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3389,1317 +3338,75 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="F110" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G110" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
       <c r="J110" s="20"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G111" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F112" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G112" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F113" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G113" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B114" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F114" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G114" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B115" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F115" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G115" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
+      <c r="B111" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D111" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F111" s="24">
+        <v>60000</v>
+      </c>
+      <c r="G111" s="24">
+        <v>1500000</v>
+      </c>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="26"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B116" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F116" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G116" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
+      <c r="B116" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C116" s="32"/>
+      <c r="H116" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B117" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E117" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F117" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G117" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B118" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E118" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F118" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G118" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B119" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F119" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G119" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B120" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E120" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F120" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G120" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B121" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F121" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G121" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B122" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F122" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G122" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B123" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D123" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G123" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B124" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G124" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B125" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D125" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G125" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B126" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F126" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G126" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B127" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F127" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G127" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B128" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F128" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G128" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B129" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D129" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F129" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G129" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B130" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D130" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F130" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G130" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B131" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F131" s="18">
-        <v>58680</v>
-      </c>
-      <c r="G131" s="18">
-        <v>1467000</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B132" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132" s="18">
-        <v>58680</v>
-      </c>
-      <c r="G132" s="18">
-        <v>1467000</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B133" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F133" s="18">
-        <v>58680</v>
-      </c>
-      <c r="G133" s="18">
-        <v>1467000</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B134" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F134" s="18">
-        <v>58680</v>
-      </c>
-      <c r="G134" s="18">
-        <v>1467000</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B135" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F135" s="18">
-        <v>58680</v>
-      </c>
-      <c r="G135" s="18">
-        <v>1467000</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B136" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F136" s="18">
-        <v>58680</v>
-      </c>
-      <c r="G136" s="18">
-        <v>1467000</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B137" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F137" s="18">
-        <v>58680</v>
-      </c>
-      <c r="G137" s="18">
-        <v>1467000</v>
-      </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B138" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F138" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G138" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B139" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F139" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G139" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B140" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F140" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G140" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B141" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="16" t="s">
+      <c r="B117" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D141" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="18">
-        <v>62800</v>
-      </c>
-      <c r="G141" s="18">
-        <v>1570000</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B142" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E142" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F142" s="18">
-        <v>62800</v>
-      </c>
-      <c r="G142" s="18">
-        <v>1570000</v>
-      </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B143" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D143" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F143" s="18">
-        <v>62800</v>
-      </c>
-      <c r="G143" s="18">
-        <v>1570000</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B144" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F144" s="18">
-        <v>62800</v>
-      </c>
-      <c r="G144" s="18">
-        <v>1570000</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B145" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F145" s="18">
-        <v>62800</v>
-      </c>
-      <c r="G145" s="18">
-        <v>1570000</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B146" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F146" s="18">
-        <v>62800</v>
-      </c>
-      <c r="G146" s="18">
-        <v>1570000</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B147" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F147" s="18">
-        <v>62800</v>
-      </c>
-      <c r="G147" s="18">
-        <v>1570000</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B148" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D148" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F148" s="18">
-        <v>62800</v>
-      </c>
-      <c r="G148" s="18">
-        <v>1570000</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B149" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="16" t="s">
+      <c r="C117" s="32"/>
+      <c r="H117" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D149" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E149" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F149" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G149" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B150" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G150" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B151" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E151" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F151" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G151" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B152" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D152" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E152" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F152" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G152" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B153" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D153" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E153" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F153" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G153" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B154" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E154" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F154" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G154" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B155" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D155" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E155" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F155" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G155" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="20"/>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B156" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D156" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E156" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F156" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G156" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="20"/>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B157" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D157" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E157" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F157" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G157" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="20"/>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B158" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D158" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E158" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G158" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="20"/>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B159" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D159" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E159" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F159" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G159" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="20"/>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B160" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D160" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E160" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F160" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G160" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="20"/>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B161" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D161" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E161" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F161" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G161" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="20"/>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B162" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D162" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E162" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F162" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G162" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="20"/>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B163" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D163" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E163" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F163" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G163" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="20"/>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B164" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E164" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F164" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G164" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="20"/>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B165" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D165" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E165" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F165" s="24">
-        <v>60000</v>
-      </c>
-      <c r="G165" s="24">
-        <v>1500000</v>
-      </c>
-      <c r="H165" s="25"/>
-      <c r="I165" s="25"/>
-      <c r="J165" s="26"/>
-    </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B170" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C170" s="32"/>
-      <c r="H170" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B171" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C171" s="32"/>
-      <c r="H171" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="H171:J171"/>
-    <mergeCell ref="H170:J170"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="H116:J116"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
